--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Col4a6</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.179172711407395</v>
+        <v>0.2222903333333333</v>
       </c>
       <c r="H2">
-        <v>0.179172711407395</v>
+        <v>0.666871</v>
       </c>
       <c r="I2">
-        <v>0.3388026128852507</v>
+        <v>0.2871991631283805</v>
       </c>
       <c r="J2">
-        <v>0.3388026128852507</v>
+        <v>0.2871991631283805</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N2">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O2">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P2">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q2">
-        <v>40.36552189236007</v>
+        <v>51.03444852491022</v>
       </c>
       <c r="R2">
-        <v>40.36552189236007</v>
+        <v>459.310036724192</v>
       </c>
       <c r="S2">
-        <v>0.1710573018318864</v>
+        <v>0.1445527197911158</v>
       </c>
       <c r="T2">
-        <v>0.1710573018318864</v>
+        <v>0.1445527197911158</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.179172711407395</v>
+        <v>0.2222903333333333</v>
       </c>
       <c r="H3">
-        <v>0.179172711407395</v>
+        <v>0.666871</v>
       </c>
       <c r="I3">
-        <v>0.3388026128852507</v>
+        <v>0.2871991631283805</v>
       </c>
       <c r="J3">
-        <v>0.3388026128852507</v>
+        <v>0.2871991631283805</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N3">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O3">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P3">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q3">
-        <v>24.2643498110335</v>
+        <v>30.17109342147655</v>
       </c>
       <c r="R3">
-        <v>24.2643498110335</v>
+        <v>271.5398407932889</v>
       </c>
       <c r="S3">
-        <v>0.1028252333872589</v>
+        <v>0.08545822947449884</v>
       </c>
       <c r="T3">
-        <v>0.1028252333872589</v>
+        <v>0.08545822947449883</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.179172711407395</v>
+        <v>0.2222903333333333</v>
       </c>
       <c r="H4">
-        <v>0.179172711407395</v>
+        <v>0.666871</v>
       </c>
       <c r="I4">
-        <v>0.3388026128852507</v>
+        <v>0.2871991631283805</v>
       </c>
       <c r="J4">
-        <v>0.3388026128852507</v>
+        <v>0.2871991631283805</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N4">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O4">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P4">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q4">
-        <v>15.21515896232856</v>
+        <v>20.05758761877945</v>
       </c>
       <c r="R4">
-        <v>15.21515896232856</v>
+        <v>180.518288569015</v>
       </c>
       <c r="S4">
-        <v>0.06447740341322755</v>
+        <v>0.05681219110906969</v>
       </c>
       <c r="T4">
-        <v>0.06447740341322755</v>
+        <v>0.05681219110906967</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.179172711407395</v>
+        <v>0.2222903333333333</v>
       </c>
       <c r="H5">
-        <v>0.179172711407395</v>
+        <v>0.666871</v>
       </c>
       <c r="I5">
-        <v>0.3388026128852507</v>
+        <v>0.2871991631283805</v>
       </c>
       <c r="J5">
-        <v>0.3388026128852507</v>
+        <v>0.2871991631283805</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N5">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O5">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P5">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q5">
-        <v>0.1044607687269779</v>
+        <v>0.1327551214216666</v>
       </c>
       <c r="R5">
-        <v>0.1044607687269779</v>
+        <v>1.194796092795</v>
       </c>
       <c r="S5">
-        <v>0.0004426742528777644</v>
+        <v>0.0003760227536961613</v>
       </c>
       <c r="T5">
-        <v>0.0004426742528777644</v>
+        <v>0.0003760227536961612</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.349668285070041</v>
+        <v>0.3635503333333334</v>
       </c>
       <c r="H6">
-        <v>0.349668285070041</v>
+        <v>1.090651</v>
       </c>
       <c r="I6">
-        <v>0.6611973871147493</v>
+        <v>0.4697071164665</v>
       </c>
       <c r="J6">
-        <v>0.6611973871147493</v>
+        <v>0.4697071164664999</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N6">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O6">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P6">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q6">
-        <v>78.77618586663969</v>
+        <v>83.46557627808356</v>
       </c>
       <c r="R6">
-        <v>78.77618586663969</v>
+        <v>751.190186502752</v>
       </c>
       <c r="S6">
-        <v>0.3338304862968962</v>
+        <v>0.2364123921911438</v>
       </c>
       <c r="T6">
-        <v>0.3338304862968962</v>
+        <v>0.2364123921911437</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.349668285070041</v>
+        <v>0.3635503333333334</v>
       </c>
       <c r="H7">
-        <v>0.349668285070041</v>
+        <v>1.090651</v>
       </c>
       <c r="I7">
-        <v>0.6611973871147493</v>
+        <v>0.4697071164665</v>
       </c>
       <c r="J7">
-        <v>0.6611973871147493</v>
+        <v>0.4697071164664999</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N7">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O7">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P7">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q7">
-        <v>47.35360379445304</v>
+        <v>49.34407585758988</v>
       </c>
       <c r="R7">
-        <v>47.35360379445304</v>
+        <v>444.096682718309</v>
       </c>
       <c r="S7">
-        <v>0.2006707535875667</v>
+        <v>0.1397648172354048</v>
       </c>
       <c r="T7">
-        <v>0.2006707535875667</v>
+        <v>0.1397648172354048</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.349668285070041</v>
+        <v>0.3635503333333334</v>
       </c>
       <c r="H8">
-        <v>0.349668285070041</v>
+        <v>1.090651</v>
       </c>
       <c r="I8">
-        <v>0.6611973871147493</v>
+        <v>0.4697071164665</v>
       </c>
       <c r="J8">
-        <v>0.6611973871147493</v>
+        <v>0.4697071164664999</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N8">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O8">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P8">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q8">
-        <v>29.69346447701249</v>
+        <v>32.80368766074612</v>
       </c>
       <c r="R8">
-        <v>29.69346447701249</v>
+        <v>295.2331889467151</v>
       </c>
       <c r="S8">
-        <v>0.1258322369526968</v>
+        <v>0.09291493114155207</v>
       </c>
       <c r="T8">
-        <v>0.1258322369526968</v>
+        <v>0.09291493114155204</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3635503333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.090651</v>
+      </c>
+      <c r="I9">
+        <v>0.4697071164665</v>
+      </c>
+      <c r="J9">
+        <v>0.4697071164664999</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5972149999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.791645</v>
+      </c>
+      <c r="O9">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="P9">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="Q9">
+        <v>0.2171177123216667</v>
+      </c>
+      <c r="R9">
+        <v>1.954059410895</v>
+      </c>
+      <c r="S9">
+        <v>0.0006149758983993485</v>
+      </c>
+      <c r="T9">
+        <v>0.0006149758983993484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.036854</v>
+      </c>
+      <c r="H10">
+        <v>0.110562</v>
+      </c>
+      <c r="I10">
+        <v>0.04761537669774214</v>
+      </c>
+      <c r="J10">
+        <v>0.04761537669774214</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>229.5846506666667</v>
+      </c>
+      <c r="N10">
+        <v>688.753952</v>
+      </c>
+      <c r="O10">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="P10">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="Q10">
+        <v>8.461112715669334</v>
+      </c>
+      <c r="R10">
+        <v>76.150014441024</v>
+      </c>
+      <c r="S10">
+        <v>0.02396571121782975</v>
+      </c>
+      <c r="T10">
+        <v>0.02396571121782975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.036854</v>
+      </c>
+      <c r="H11">
+        <v>0.110562</v>
+      </c>
+      <c r="I11">
+        <v>0.04761537669774214</v>
+      </c>
+      <c r="J11">
+        <v>0.04761537669774214</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>135.7283196666666</v>
+      </c>
+      <c r="N11">
+        <v>407.1849589999999</v>
+      </c>
+      <c r="O11">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="P11">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="Q11">
+        <v>5.002131492995332</v>
+      </c>
+      <c r="R11">
+        <v>45.01918343695799</v>
+      </c>
+      <c r="S11">
+        <v>0.0141683065647772</v>
+      </c>
+      <c r="T11">
+        <v>0.0141683065647772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.036854</v>
+      </c>
+      <c r="H12">
+        <v>0.110562</v>
+      </c>
+      <c r="I12">
+        <v>0.04761537669774214</v>
+      </c>
+      <c r="J12">
+        <v>0.04761537669774214</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>90.23148833333335</v>
+      </c>
+      <c r="N12">
+        <v>270.694465</v>
+      </c>
+      <c r="O12">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="P12">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="Q12">
+        <v>3.325391271036667</v>
+      </c>
+      <c r="R12">
+        <v>29.92852143933</v>
+      </c>
+      <c r="S12">
+        <v>0.009419017281304723</v>
+      </c>
+      <c r="T12">
+        <v>0.009419017281304721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.036854</v>
+      </c>
+      <c r="H13">
+        <v>0.110562</v>
+      </c>
+      <c r="I13">
+        <v>0.04761537669774214</v>
+      </c>
+      <c r="J13">
+        <v>0.04761537669774214</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5972149999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.791645</v>
+      </c>
+      <c r="O13">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="P13">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="Q13">
+        <v>0.02200976161</v>
+      </c>
+      <c r="R13">
+        <v>0.19808785449</v>
+      </c>
+      <c r="S13">
+        <v>6.234163383046342E-05</v>
+      </c>
+      <c r="T13">
+        <v>6.234163383046341E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.151299</v>
+      </c>
+      <c r="H14">
+        <v>0.453897</v>
+      </c>
+      <c r="I14">
+        <v>0.1954783437073775</v>
+      </c>
+      <c r="J14">
+        <v>0.1954783437073774</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>229.5846506666667</v>
+      </c>
+      <c r="N14">
+        <v>688.753952</v>
+      </c>
+      <c r="O14">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="P14">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="Q14">
+        <v>34.735928061216</v>
+      </c>
+      <c r="R14">
+        <v>312.623352550944</v>
+      </c>
+      <c r="S14">
+        <v>0.09838791288724219</v>
+      </c>
+      <c r="T14">
+        <v>0.09838791288724218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.349668285070041</v>
-      </c>
-      <c r="H9">
-        <v>0.349668285070041</v>
-      </c>
-      <c r="I9">
-        <v>0.6611973871147493</v>
-      </c>
-      <c r="J9">
-        <v>0.6611973871147493</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.583017178823954</v>
-      </c>
-      <c r="N9">
-        <v>0.583017178823954</v>
-      </c>
-      <c r="O9">
-        <v>0.001306584530467284</v>
-      </c>
-      <c r="P9">
-        <v>0.001306584530467284</v>
-      </c>
-      <c r="Q9">
-        <v>0.2038626170857454</v>
-      </c>
-      <c r="R9">
-        <v>0.2038626170857454</v>
-      </c>
-      <c r="S9">
-        <v>0.00086391027758952</v>
-      </c>
-      <c r="T9">
-        <v>0.00086391027758952</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.151299</v>
+      </c>
+      <c r="H15">
+        <v>0.453897</v>
+      </c>
+      <c r="I15">
+        <v>0.1954783437073775</v>
+      </c>
+      <c r="J15">
+        <v>0.1954783437073774</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>135.7283196666666</v>
+      </c>
+      <c r="N15">
+        <v>407.1849589999999</v>
+      </c>
+      <c r="O15">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="P15">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="Q15">
+        <v>20.53555903724699</v>
+      </c>
+      <c r="R15">
+        <v>184.820031335223</v>
+      </c>
+      <c r="S15">
+        <v>0.05816602308960293</v>
+      </c>
+      <c r="T15">
+        <v>0.05816602308960293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.151299</v>
+      </c>
+      <c r="H16">
+        <v>0.453897</v>
+      </c>
+      <c r="I16">
+        <v>0.1954783437073775</v>
+      </c>
+      <c r="J16">
+        <v>0.1954783437073774</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>90.23148833333335</v>
+      </c>
+      <c r="N16">
+        <v>270.694465</v>
+      </c>
+      <c r="O16">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="P16">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="Q16">
+        <v>13.651933953345</v>
+      </c>
+      <c r="R16">
+        <v>122.867405580105</v>
+      </c>
+      <c r="S16">
+        <v>0.03866847277484461</v>
+      </c>
+      <c r="T16">
+        <v>0.03866847277484461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.151299</v>
+      </c>
+      <c r="H17">
+        <v>0.453897</v>
+      </c>
+      <c r="I17">
+        <v>0.1954783437073775</v>
+      </c>
+      <c r="J17">
+        <v>0.1954783437073774</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5972149999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.791645</v>
+      </c>
+      <c r="O17">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="P17">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="Q17">
+        <v>0.09035803228499999</v>
+      </c>
+      <c r="R17">
+        <v>0.813222290565</v>
+      </c>
+      <c r="S17">
+        <v>0.0002559349556877214</v>
+      </c>
+      <c r="T17">
+        <v>0.0002559349556877214</v>
       </c>
     </row>
   </sheetData>
